--- a/DataTables/Datas/jump.xlsx
+++ b/DataTables/Datas/jump.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,26 +34,7 @@
     <t>##var</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
+    <t>id</t>
   </si>
   <si>
     <t>param1</t>
@@ -90,26 +73,7 @@
     <t>##</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>这是i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>d</t>
-    </r>
+    <t>这是id</t>
   </si>
   <si>
     <t>参数1</t>
@@ -147,29 +111,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -177,14 +127,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -192,7 +142,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -200,7 +150,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -208,7 +158,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -216,7 +166,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -224,14 +174,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -239,7 +189,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -247,7 +197,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -255,14 +205,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -270,28 +220,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -305,6 +269,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -317,30 +305,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -490,33 +454,9 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -622,7 +562,9 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -638,58 +580,58 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -768,13 +710,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -837,9 +776,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="WPS">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -853,38 +792,38 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4874CB"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="EE822F"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="F2BA02"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="75BD42"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="30C0B4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="E54C5E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0026E5"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="7E1FAD"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="WPS">
       <a:majorFont>
         <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -917,9 +856,9 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -949,66 +888,40 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="WPS">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:lumOff val="17500"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:hueOff val="-2520000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1022,20 +935,38 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="phClr">
+                  <a:hueOff val="-4200000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="phClr"/>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="2700000" scaled="1"/>
+          </a:gradFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:schemeClr val="phClr">
+                <a:alpha val="60000"/>
+              </a:schemeClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
@@ -1094,46 +1025,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="9.225" customWidth="1"/>
-    <col min="2" max="2" width="6.75" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.3833333333333" customWidth="1"/>
-    <col min="5" max="5" width="5.5" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="13.1333333333333" customWidth="1"/>
-    <col min="9" max="9" width="12.3833333333333" customWidth="1"/>
-    <col min="10" max="10" width="17.8833333333333" customWidth="1"/>
-    <col min="11" max="11" width="28" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="5.13333333333333" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1145,92 +1061,32 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1"/>
-      <c r="K1"/>
-      <c r="L1"/>
-      <c r="M1"/>
-      <c r="N1" s="5"/>
-      <c r="O1"/>
-      <c r="P1"/>
-      <c r="Q1"/>
-      <c r="R1"/>
-      <c r="S1"/>
-      <c r="T1"/>
-      <c r="U1"/>
-      <c r="V1"/>
-      <c r="W1"/>
-      <c r="X1"/>
-      <c r="Y1"/>
-      <c r="Z1"/>
-      <c r="AA1"/>
-      <c r="AB1"/>
-      <c r="AC1"/>
-      <c r="AD1"/>
-      <c r="AE1"/>
-      <c r="AF1"/>
-      <c r="AG1"/>
-      <c r="AH1"/>
-      <c r="AI1"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2" s="5"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
-      <c r="AE2"/>
-      <c r="AF2"/>
-      <c r="AG2"/>
-      <c r="AH2"/>
-      <c r="AI2"/>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:35">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
       <c r="H3" t="s">
@@ -1239,83 +1095,23 @@
       <c r="I3" t="s">
         <v>10</v>
       </c>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3" s="5"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3"/>
-      <c r="AE3"/>
-      <c r="AF3"/>
-      <c r="AG3"/>
-      <c r="AH3"/>
-      <c r="AI3"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:35">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4" s="5"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-      <c r="AE4"/>
-      <c r="AF4"/>
-      <c r="AG4"/>
-      <c r="AH4"/>
-      <c r="AI4"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
@@ -1333,81 +1129,10 @@
       <c r="I5" t="s">
         <v>21</v>
       </c>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5" s="5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
-      <c r="AE5"/>
-      <c r="AF5"/>
-      <c r="AG5"/>
-      <c r="AH5"/>
-      <c r="AI5"/>
     </row>
     <row r="6" spans="2:2">
       <c r="B6">
         <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
-      <c r="B7">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9">
-        <v>10003</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10">
-        <v>10004</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11">
-        <v>10005</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12">
-        <v>10006</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13">
-        <v>10007</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14">
-        <v>10008</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15">
-        <v>10009</v>
       </c>
     </row>
   </sheetData>
@@ -1415,4 +1140,38 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/DataTables/Datas/jump.xlsx
+++ b/DataTables/Datas/jump.xlsx
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="A1" sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>

--- a/DataTables/Datas/jump.xlsx
+++ b/DataTables/Datas/jump.xlsx
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I6"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>

--- a/DataTables/Datas/jump.xlsx
+++ b/DataTables/Datas/jump.xlsx
@@ -1028,7 +1028,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>

--- a/DataTables/Datas/jump.xlsx
+++ b/DataTables/Datas/jump.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -37,6 +37,18 @@
     <t>id</t>
   </si>
   <si>
+    <t>funId</t>
+  </si>
+  <si>
+    <t>sceneId</t>
+  </si>
+  <si>
+    <t>scenePanelName</t>
+  </si>
+  <si>
+    <t>panelName</t>
+  </si>
+  <si>
     <t>param1</t>
   </si>
   <si>
@@ -46,18 +58,6 @@
     <t>param3</t>
   </si>
   <si>
-    <t>panelName</t>
-  </si>
-  <si>
-    <t>scenePanelName</t>
-  </si>
-  <si>
-    <t>funcId</t>
-  </si>
-  <si>
-    <t>sceneId</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -73,7 +73,16 @@
     <t>##</t>
   </si>
   <si>
-    <t>这是id</t>
+    <t>功能id</t>
+  </si>
+  <si>
+    <t>场景id</t>
+  </si>
+  <si>
+    <t>场景界面</t>
+  </si>
+  <si>
+    <t>跳转界面</t>
   </si>
   <si>
     <t>参数1</t>
@@ -83,18 +92,6 @@
   </si>
   <si>
     <t>参数3</t>
-  </si>
-  <si>
-    <t>面板名</t>
-  </si>
-  <si>
-    <t>场景主界面</t>
-  </si>
-  <si>
-    <t>功能id</t>
-  </si>
-  <si>
-    <t>场景id</t>
   </si>
 </sst>
 </file>
@@ -1028,7 +1025,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1087,13 +1084,13 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -1106,28 +1103,28 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:2">

--- a/DataTables/Datas/jump.xlsx
+++ b/DataTables/Datas/jump.xlsx
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>

--- a/DataTables/Datas/jump.xlsx
+++ b/DataTables/Datas/jump.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17775"/>
+    <workbookView windowWidth="21000" windowHeight="17055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,40 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Lcc</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Lcc:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+如果是0或不填，就是正常功能，1是活动，2是礼包</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -37,18 +69,21 @@
     <t>id</t>
   </si>
   <si>
-    <t>funId</t>
-  </si>
-  <si>
-    <t>sceneId</t>
-  </si>
-  <si>
-    <t>scenePanelName</t>
+    <t>panelType</t>
   </si>
   <si>
     <t>panelName</t>
   </si>
   <si>
+    <t>panelNameDes</t>
+  </si>
+  <si>
+    <t>funcType</t>
+  </si>
+  <si>
+    <t>funcId</t>
+  </si>
+  <si>
     <t>param1</t>
   </si>
   <si>
@@ -58,6 +93,9 @@
     <t>param3</t>
   </si>
   <si>
+    <t>sceneID</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -73,18 +111,21 @@
     <t>##</t>
   </si>
   <si>
+    <t>界面类型</t>
+  </si>
+  <si>
+    <t>跳转界面</t>
+  </si>
+  <si>
+    <t>跳转界面UI名称</t>
+  </si>
+  <si>
+    <t>功能类型</t>
+  </si>
+  <si>
     <t>功能id</t>
   </si>
   <si>
-    <t>场景id</t>
-  </si>
-  <si>
-    <t>场景界面</t>
-  </si>
-  <si>
-    <t>跳转界面</t>
-  </si>
-  <si>
     <t>参数1</t>
   </si>
   <si>
@@ -92,6 +133,9 @@
   </si>
   <si>
     <t>参数3</t>
+  </si>
+  <si>
+    <t>场景位或</t>
   </si>
 </sst>
 </file>
@@ -104,7 +148,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +299,17 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -707,8 +762,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,15 +1080,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1058,84 +1116,107 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="F5">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6">
-        <v>10000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
